--- a/Share_in_PV_Price.xlsx
+++ b/Share_in_PV_Price.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\PycharmProjects\Final_folder_2_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\PycharmProjects\NJORD_2022_Albin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47BFE64-1EB3-4EAE-A45A-2633A7A2604C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EA46F5-C966-4055-A2CC-D0E1C80B1E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="1152" windowWidth="22140" windowHeight="11388" xr2:uid="{147ABDCE-CA2D-47B3-9F13-DDE8ED02A906}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{147ABDCE-CA2D-47B3-9F13-DDE8ED02A906}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Actor</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>2013</t>
+  </si>
+  <si>
+    <t>2021</t>
   </si>
 </sst>
 </file>
@@ -116,7 +119,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +149,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -272,7 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -290,12 +299,213 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -324,181 +534,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -669,15 +704,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleLight13 2" pivot="0" count="9" xr9:uid="{7792BC82-3BFC-43D3-A502-A8450BFB9B88}">
-      <tableStyleElement type="wholeTable" dxfId="19"/>
-      <tableStyleElement type="headerRow" dxfId="18"/>
-      <tableStyleElement type="totalRow" dxfId="17"/>
-      <tableStyleElement type="firstColumn" dxfId="16"/>
-      <tableStyleElement type="lastColumn" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="secondRowStripe" dxfId="13"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="12"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="11"/>
+      <tableStyleElement type="wholeTable" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="totalRow" dxfId="18"/>
+      <tableStyleElement type="firstColumn" dxfId="17"/>
+      <tableStyleElement type="lastColumn" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="secondRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="12"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -692,13 +727,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC2AD7D-C913-466B-A5BB-69CC5C82CC41}" name="Table8" displayName="Table8" ref="A1:O10" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:O10" xr:uid="{1CC2AD7D-C913-466B-A5BB-69CC5C82CC41}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{6599BF0D-C22A-479D-9408-6C8C42D44000}" name="Actor" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC2AD7D-C913-466B-A5BB-69CC5C82CC41}" name="Table8" displayName="Table8" ref="A1:P10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:P10" xr:uid="{1CC2AD7D-C913-466B-A5BB-69CC5C82CC41}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{6599BF0D-C22A-479D-9408-6C8C42D44000}" name="Actor" dataDxfId="9"/>
     <tableColumn id="15" xr3:uid="{89125D5A-555E-45D6-9FC0-606B3776BA25}" name="2007"/>
     <tableColumn id="14" xr3:uid="{8E96A046-07FD-4F0F-815B-FE6F0D6DA113}" name="2008"/>
-    <tableColumn id="13" xr3:uid="{4C191BC9-D96B-4DF8-B38F-7D14ED74F247}" name="2009" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{4C191BC9-D96B-4DF8-B38F-7D14ED74F247}" name="2009" dataDxfId="8" dataCellStyle="Percent"/>
     <tableColumn id="12" xr3:uid="{1A90F1F7-8A62-429C-A3C1-649127CDA5D7}" name="2010"/>
     <tableColumn id="11" xr3:uid="{E604B147-6790-4B90-BF19-7E5844838A31}" name="2011"/>
     <tableColumn id="10" xr3:uid="{EA7A6DDB-B0E1-4AAE-9800-BB7E96D51B7C}" name="2012"/>
@@ -710,6 +745,7 @@
     <tableColumn id="6" xr3:uid="{2ECB70AD-3E46-42A3-9A03-9940F3C61D26}" name="2018" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{B5EB7056-52EC-4F45-9982-ED2A3762987A}" name="2019" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{EDAE60C4-FEFB-4ACF-A3C6-6D58778EA4E6}" name="2020" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{94577929-AA4C-4340-AEE6-3ED8EF856208}" name="2021" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1012,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273BE1D6-1FEC-4D5E-9B6A-D00E389E93A7}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1024,11 +1060,12 @@
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="18.33203125" customWidth="1"/>
     <col min="13" max="13" width="18.77734375" customWidth="1"/>
-    <col min="14" max="14" width="24.77734375" customWidth="1"/>
-    <col min="15" max="15" width="27.44140625" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" customWidth="1"/>
+    <col min="15" max="15" width="14.5546875" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1074,8 +1111,11 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="15" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1121,8 +1161,11 @@
       <c r="O2" s="5">
         <v>0.82258441631916157</v>
       </c>
+      <c r="P2" s="5">
+        <v>0.82258441631916157</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1168,8 +1211,11 @@
       <c r="O3" s="3">
         <v>1.0024195826896141</v>
       </c>
+      <c r="P3" s="3">
+        <v>1.0024195826896141</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1215,8 +1261,11 @@
       <c r="O4" s="3">
         <v>0.53460360753896807</v>
       </c>
+      <c r="P4" s="3">
+        <v>0.53460360753896807</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1262,8 +1311,11 @@
       <c r="O5" s="3">
         <v>0.94019964283427371</v>
       </c>
+      <c r="P5" s="3">
+        <v>0.94019964283427371</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -1309,8 +1361,11 @@
       <c r="O6" s="3">
         <v>0.88151677490575997</v>
       </c>
+      <c r="P6" s="3">
+        <v>0.88151677490575997</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1356,8 +1411,11 @@
       <c r="O7" s="3">
         <v>0.18086601249306269</v>
       </c>
+      <c r="P7" s="3">
+        <v>0.18086601249306269</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
@@ -1403,8 +1461,11 @@
       <c r="O8" s="3">
         <v>8.1894079793302862E-2</v>
       </c>
+      <c r="P8" s="3">
+        <v>8.1894079793302862E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1450,8 +1511,11 @@
       <c r="O9" s="3">
         <v>1.332530181495435E-2</v>
       </c>
+      <c r="P9" s="3">
+        <v>1.332530181495435E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -1497,8 +1561,12 @@
       <c r="O10" s="7">
         <v>0.71139764109373804</v>
       </c>
+      <c r="P10" s="7">
+        <v>0.71139764109373804</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
